--- a/ifqe-portal-backend5/templates/3.1.1_Template.xlsx
+++ b/ifqe-portal-backend5/templates/3.1.1_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHANDAN\Pictures\ifque updted files from 1-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\OneDrive\Documents\ifqe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EF0CD8-966E-49C5-A800-530F3B66632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{646EEFCB-B0AF-4E73-9463-D2B7CCF2999F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81E49D61-8DCC-4171-88D2-5CDCE4A1461E}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -69,34 +60,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="CanvaSans-Bold"/>
     </font>
     <font>
       <sz val="26"/>
@@ -107,11 +77,17 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -134,31 +110,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -172,39 +128,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -224,57 +151,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,205 +483,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244BF7E-C049-4ED9-9936-02CDDF53CA57}">
-  <dimension ref="B1:S12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:U8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="13" max="13" width="2.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.88671875" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="1" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+    <row r="1" spans="1:6" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="2:19" ht="22.2" customHeight="1">
-      <c r="B2" s="4"/>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+    <row r="2" spans="1:6" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:19" ht="13.2" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+    <row r="3" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="18" customHeight="1" thickBot="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+    <row r="4" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:19" ht="68.400000000000006" customHeight="1" thickBot="1">
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="2:19" ht="33.6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="2:19" ht="33.6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" ht="34.200000000000003" thickBot="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="12" spans="2:19" ht="25.8">
-      <c r="F12" s="1"/>
+    <row r="5" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>